--- a/Sheets/public_fin_industry.xlsx
+++ b/Sheets/public_fin_industry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesmoore/Desktop/Finance UROP/Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71D69962-FFB5-0646-8B87-30FA0D24872C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30F1EA0-8F0C-804C-AFE1-7489D4FE37DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="500" windowWidth="20660" windowHeight="17320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9160" yWindow="11860" windowWidth="20660" windowHeight="17320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ccavlfed9hhsro4h" sheetId="1" r:id="rId1"/>
